--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2076943.738453521</v>
+        <v>-2079804.552245813</v>
       </c>
     </row>
     <row r="7">
@@ -656,67 +656,67 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>232.2791855053265</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>152.7676931992223</v>
+      </c>
+      <c r="T2" t="n">
+        <v>79.51149230610422</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>263.7138800015061</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>59.01099282668341</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8.167818357481517</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>15.07219909888209</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>100.8937921185829</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>144.6947041166665</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>232.0107229828401</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>116.704103435943</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>87.96049006335821</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>198.4759559236156</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>139.3556803083553</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>68.42180579895785</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>83.8128340928811</v>
+        <v>411.7416790765836</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>94.41571677010511</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8724504177537</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.5073162493723</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0607682327524</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47.66003934531806</v>
+        <v>23.86373007625772</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>23.7963092690662</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>136.2924232858446</v>
+        <v>136.2924232858445</v>
       </c>
       <c r="T9" t="n">
         <v>192.4848946346715</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>110.2043673300301</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3936111367397</v>
       </c>
       <c r="H10" t="n">
-        <v>148.025116863428</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.1204706627545</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2319001807608</v>
+        <v>43.60070214535664</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>140.7215037338434</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>250.7811435429985</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>69.82863813027228</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>73.9322284908373</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>6.600826611594925</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2.268486125805158</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>121.8455631377181</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>56.04917322725558</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>64.36993339924462</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>65.38324202937314</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>93.40444476188321</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,19 +3004,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744909022</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>231.961078898958</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3661,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261727</v>
@@ -3670,16 +3670,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,10 +4195,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553.8524235344764</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C2" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D2" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E2" t="n">
         <v>21.09711040012049</v>
@@ -4328,22 +4328,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917582</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="W2" t="n">
-        <v>788.4778634388466</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388466</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388466</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>333.4345074562799</v>
+        <v>404.0916128037952</v>
       </c>
       <c r="C3" t="n">
-        <v>333.4345074562799</v>
+        <v>229.6385835226681</v>
       </c>
       <c r="D3" t="n">
-        <v>333.4345074562799</v>
+        <v>80.70417386141688</v>
       </c>
       <c r="E3" t="n">
-        <v>174.1970524508244</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>174.1970524508244</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4434,25 +4434,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098642</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>709.4101432413019</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>709.4101432413019</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>709.4101432413019</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="W3" t="n">
-        <v>709.4101432413019</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="X3" t="n">
-        <v>709.4101432413019</v>
+        <v>611.8519115687491</v>
       </c>
       <c r="Y3" t="n">
-        <v>501.6498444763479</v>
+        <v>404.0916128037952</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>309.8226110485074</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="C4" t="n">
-        <v>309.8226110485074</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="D4" t="n">
-        <v>159.7059716361716</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E4" t="n">
-        <v>159.7059716361716</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F4" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G4" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I4" t="n">
         <v>36.32155393434483</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165359</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T4" t="n">
-        <v>746.155564084634</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="U4" t="n">
-        <v>746.155564084634</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="V4" t="n">
-        <v>491.4710758787471</v>
+        <v>779.9067250561958</v>
       </c>
       <c r="W4" t="n">
-        <v>491.4710758787471</v>
+        <v>779.9067250561958</v>
       </c>
       <c r="X4" t="n">
-        <v>491.4710758787471</v>
+        <v>551.9171741581785</v>
       </c>
       <c r="Y4" t="n">
-        <v>491.4710758787471</v>
+        <v>331.1245950146483</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>534.7928453799753</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="C5" t="n">
-        <v>534.7928453799753</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="D5" t="n">
-        <v>268.4151888127974</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="E5" t="n">
-        <v>268.4151888127974</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
@@ -4601,16 +4601,16 @@
         <v>801.1705019471533</v>
       </c>
       <c r="V5" t="n">
-        <v>801.1705019471533</v>
+        <v>683.2875691835745</v>
       </c>
       <c r="W5" t="n">
-        <v>801.1705019471533</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="X5" t="n">
-        <v>534.7928453799753</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="Y5" t="n">
-        <v>534.7928453799753</v>
+        <v>416.9099126163966</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>443.636574548681</v>
+        <v>657.5656780782545</v>
       </c>
       <c r="C6" t="n">
-        <v>269.183545267554</v>
+        <v>657.5656780782545</v>
       </c>
       <c r="D6" t="n">
-        <v>269.183545267554</v>
+        <v>508.6312684170032</v>
       </c>
       <c r="E6" t="n">
-        <v>109.9460902620985</v>
+        <v>349.3938134115477</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4650,16 +4650,16 @@
         <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4674,22 +4674,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742819</v>
+        <v>657.5656780782545</v>
       </c>
       <c r="W6" t="n">
-        <v>819.7034117742819</v>
+        <v>657.5656780782545</v>
       </c>
       <c r="X6" t="n">
-        <v>611.8519115687491</v>
+        <v>657.5656780782545</v>
       </c>
       <c r="Y6" t="n">
-        <v>611.8519115687491</v>
+        <v>657.5656780782545</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>450.5859244912905</v>
+        <v>454.5090127164751</v>
       </c>
       <c r="C7" t="n">
-        <v>450.5859244912905</v>
+        <v>454.5090127164751</v>
       </c>
       <c r="D7" t="n">
-        <v>300.4692850789547</v>
+        <v>454.5090127164751</v>
       </c>
       <c r="E7" t="n">
-        <v>300.4692850789547</v>
+        <v>306.595919134082</v>
       </c>
       <c r="F7" t="n">
-        <v>300.4692850789547</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="G7" t="n">
         <v>159.7059716361716</v>
@@ -4726,13 +4726,13 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
         <v>739.1822330227046</v>
@@ -4759,16 +4759,16 @@
         <v>926.0629918407075</v>
       </c>
       <c r="V7" t="n">
-        <v>671.3785036348206</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="W7" t="n">
-        <v>671.3785036348206</v>
+        <v>856.950056690245</v>
       </c>
       <c r="X7" t="n">
-        <v>671.3785036348206</v>
+        <v>856.950056690245</v>
       </c>
       <c r="Y7" t="n">
-        <v>450.5859244912905</v>
+        <v>636.1574775467149</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1269.389951105234</v>
+        <v>1354.560656594506</v>
       </c>
       <c r="C8" t="n">
-        <v>900.4274341648222</v>
+        <v>1354.560656594506</v>
       </c>
       <c r="D8" t="n">
-        <v>542.1617355580718</v>
+        <v>1354.560656594506</v>
       </c>
       <c r="E8" t="n">
-        <v>542.1617355580718</v>
+        <v>968.7724039962613</v>
       </c>
       <c r="F8" t="n">
-        <v>131.1758307684642</v>
+        <v>557.7864992066538</v>
       </c>
       <c r="G8" t="n">
-        <v>46.51640239181663</v>
+        <v>141.8858132707108</v>
       </c>
       <c r="H8" t="n">
-        <v>46.51640239181663</v>
+        <v>46.51640239181674</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181663</v>
+        <v>46.51640239181674</v>
       </c>
       <c r="J8" t="n">
-        <v>166.498936722915</v>
+        <v>166.4989367229155</v>
       </c>
       <c r="K8" t="n">
-        <v>397.0601716677467</v>
+        <v>397.0601716677478</v>
       </c>
       <c r="L8" t="n">
-        <v>719.9935330937531</v>
+        <v>719.9935330937546</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.98855772157</v>
+        <v>1110.988557721573</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.924098999412</v>
+        <v>1512.924098999415</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830546</v>
+        <v>1879.12517183055</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.168314271711</v>
+        <v>2157.168314271716</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.79438825757</v>
+        <v>2317.794388257575</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.820119590831</v>
+        <v>2325.820119590837</v>
       </c>
       <c r="S8" t="n">
-        <v>2196.656028259767</v>
+        <v>2325.820119590837</v>
       </c>
       <c r="T8" t="n">
-        <v>1987.052678512926</v>
+        <v>2325.820119590837</v>
       </c>
       <c r="U8" t="n">
-        <v>1987.052678512926</v>
+        <v>2072.223384002198</v>
       </c>
       <c r="V8" t="n">
-        <v>1655.989791169356</v>
+        <v>1741.160496658627</v>
       </c>
       <c r="W8" t="n">
-        <v>1655.989791169356</v>
+        <v>1741.160496658627</v>
       </c>
       <c r="X8" t="n">
-        <v>1655.989791169356</v>
+        <v>1741.160496658627</v>
       </c>
       <c r="Y8" t="n">
-        <v>1655.989791169356</v>
+        <v>1741.160496658627</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>812.4820996906755</v>
+        <v>836.5187757200355</v>
       </c>
       <c r="C9" t="n">
-        <v>638.0290704095485</v>
+        <v>662.0657464389085</v>
       </c>
       <c r="D9" t="n">
-        <v>489.0946607482973</v>
+        <v>513.1313367776572</v>
       </c>
       <c r="E9" t="n">
-        <v>329.8572057428418</v>
+        <v>353.8938817722017</v>
       </c>
       <c r="F9" t="n">
-        <v>183.3226477697267</v>
+        <v>207.3593237990866</v>
       </c>
       <c r="G9" t="n">
-        <v>46.51640239181663</v>
+        <v>70.55307842117654</v>
       </c>
       <c r="H9" t="n">
-        <v>46.51640239181663</v>
+        <v>70.55307842117654</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181663</v>
+        <v>46.51640239181674</v>
       </c>
       <c r="J9" t="n">
-        <v>223.9894559067833</v>
+        <v>99.15933091977894</v>
       </c>
       <c r="K9" t="n">
-        <v>392.1194303282853</v>
+        <v>529.1098899837341</v>
       </c>
       <c r="L9" t="n">
-        <v>664.5134706206983</v>
+        <v>801.5039302761477</v>
       </c>
       <c r="M9" t="n">
-        <v>1240.153950219429</v>
+        <v>1138.731795472811</v>
       </c>
       <c r="N9" t="n">
-        <v>1600.715878470764</v>
+        <v>1499.293723724146</v>
       </c>
       <c r="O9" t="n">
-        <v>1996.057717796907</v>
+        <v>1806.917651385033</v>
       </c>
       <c r="P9" t="n">
-        <v>2223.619974106022</v>
+        <v>2205.661351085881</v>
       </c>
       <c r="Q9" t="n">
-        <v>2325.820119590831</v>
+        <v>2307.861496570691</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.820119590831</v>
+        <v>2325.820119590837</v>
       </c>
       <c r="S9" t="n">
-        <v>2188.151005160685</v>
+        <v>2188.151005160691</v>
       </c>
       <c r="T9" t="n">
-        <v>1993.721818661017</v>
+        <v>1993.721818661023</v>
       </c>
       <c r="U9" t="n">
-        <v>1765.624817505266</v>
+        <v>1765.624817505272</v>
       </c>
       <c r="V9" t="n">
-        <v>1530.472709273523</v>
+        <v>1530.47270927353</v>
       </c>
       <c r="W9" t="n">
-        <v>1276.235352545322</v>
+        <v>1276.235352545328</v>
       </c>
       <c r="X9" t="n">
-        <v>1068.383852339789</v>
+        <v>1068.383852339795</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.6235535748351</v>
+        <v>860.6235535748413</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.2035417237915</v>
+        <v>509.3937981556957</v>
       </c>
       <c r="C10" t="n">
-        <v>455.2673587958847</v>
+        <v>509.3937981556957</v>
       </c>
       <c r="D10" t="n">
-        <v>455.2673587958847</v>
+        <v>509.3937981556957</v>
       </c>
       <c r="E10" t="n">
-        <v>307.3542652134915</v>
+        <v>361.4807045733025</v>
       </c>
       <c r="F10" t="n">
-        <v>196.0367224558854</v>
+        <v>214.5907570753922</v>
       </c>
       <c r="G10" t="n">
-        <v>196.0367224558854</v>
+        <v>46.51640239181674</v>
       </c>
       <c r="H10" t="n">
-        <v>46.51640239181663</v>
+        <v>46.51640239181674</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181663</v>
+        <v>46.51640239181674</v>
       </c>
       <c r="J10" t="n">
-        <v>65.89540801909489</v>
+        <v>65.89540801909519</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736007</v>
+        <v>227.5779039736012</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632597</v>
+        <v>490.0022680632607</v>
       </c>
       <c r="M10" t="n">
-        <v>777.0810884794024</v>
+        <v>777.0810884794038</v>
       </c>
       <c r="N10" t="n">
-        <v>1062.768432620616</v>
+        <v>1062.768432620618</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257111</v>
+        <v>1310.630639257113</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.198894325112</v>
+        <v>1499.198894325115</v>
       </c>
       <c r="Q10" t="n">
-        <v>1546.318699718226</v>
+        <v>1546.318699718229</v>
       </c>
       <c r="R10" t="n">
-        <v>1546.318699718226</v>
+        <v>1546.318699718229</v>
       </c>
       <c r="S10" t="n">
-        <v>1546.318699718226</v>
+        <v>1546.318699718229</v>
       </c>
       <c r="T10" t="n">
-        <v>1322.964688947767</v>
+        <v>1546.318699718229</v>
       </c>
       <c r="U10" t="n">
-        <v>1033.841557452049</v>
+        <v>1502.277586440091</v>
       </c>
       <c r="V10" t="n">
-        <v>1033.841557452049</v>
+        <v>1247.593098234204</v>
       </c>
       <c r="W10" t="n">
-        <v>1033.841557452049</v>
+        <v>958.1759281972431</v>
       </c>
       <c r="X10" t="n">
-        <v>805.8520065540313</v>
+        <v>730.1863772992258</v>
       </c>
       <c r="Y10" t="n">
-        <v>805.8520065540313</v>
+        <v>509.3937981556957</v>
       </c>
     </row>
     <row r="11">
@@ -5030,58 +5030,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191924</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L12" t="n">
-        <v>923.067041434951</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.840175011101</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>549.6145409888042</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>549.6145409888042</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888042</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2237.774446768175</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.172981791116</v>
       </c>
       <c r="U13" t="n">
-        <v>1724.146794103439</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V13" t="n">
-        <v>1469.462305897552</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W13" t="n">
-        <v>1180.045135860591</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>952.055584962574</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>731.2630058190439</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5264,49 +5264,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438179</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438179</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703109</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>545.3854261579752</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>397.4723325755821</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>250.5823850776717</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,10 +5501,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168617</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5546,7 +5546,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>415.5933575433587</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>267.6802639609656</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5716,7 +5716,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5780,19 +5780,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>562.8579153358621</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.6673633290469</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C22" t="n">
-        <v>699.73118040114</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888043</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2323.886757178525</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2104.285292201466</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1815.210065545664</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1560.525577339777</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1271.108407302817</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>1271.108407302817</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y22" t="n">
-        <v>1050.315828159287</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,10 +6023,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>705.9324428257312</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,31 +6145,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6187,10 +6187,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459582</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180513</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D28" t="n">
-        <v>449.4852666057155</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E28" t="n">
-        <v>301.5721730233224</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761979</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,55 +6449,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852889</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W31" t="n">
-        <v>1199.397245548862</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X31" t="n">
-        <v>971.4076946508441</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,25 +6713,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,16 +6771,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6789,13 +6789,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6889,7 +6889,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6917,67 +6917,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954146</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311322</v>
@@ -7114,7 +7114,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
@@ -7123,22 +7123,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111739</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068011</v>
@@ -7193,10 +7193,10 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492579</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273908</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273908</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684978</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580108</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I40" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547835</v>
@@ -7363,7 +7363,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,10 +7372,10 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7424,34 +7424,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,61 +7634,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954154</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311328</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8152,10 +8152,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.006563314041</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775129</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8298,19 +8298,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>97.32166909127238</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>240.8208226283519</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>88.60395117702717</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>172.9105488805375</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>27.38164655864809</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150.4546561581541</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400.2015838370822</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>267.773385939701</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>132.778223297119</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>85.52708871590687</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -22635,7 +22635,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,10 +22762,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>107.4429392071615</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>40.30478226780122</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>35.40333084624567</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>110.003342051665</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>91.59190980143154</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>138.8202214113363</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>144.165476520764</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>59.18072286392645</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>123.7828069546817</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>102.8768876993832</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>80.03780599355811</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>205.8445769401539</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>54.56191943763301</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1342160.936893719</v>
+        <v>1342160.93689372</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1342160.936893719</v>
+        <v>1342160.93689372</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67700.85635772871</v>
+        <v>67700.85635772867</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.65996900058</v>
+        <v>80714.65996900063</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.65996900063</v>
+        <v>80714.65996900064</v>
       </c>
       <c r="G2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.65996900063</v>
+        <v>80714.65996900064</v>
       </c>
       <c r="I2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900064</v>
       </c>
       <c r="J2" t="n">
-        <v>80714.65996900063</v>
+        <v>80714.65996900064</v>
       </c>
       <c r="K2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642839</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228512954</v>
+        <v>331437.522851297</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.7843424137</v>
+        <v>563905.7843424125</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5.5409215677243e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.14336201138</v>
+        <v>99845.14336201176</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.6769569563</v>
+        <v>147342.676956956</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169017.9536818823</v>
+        <v>169017.9536818822</v>
       </c>
       <c r="C4" t="n">
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>157189.0051278</v>
+        <v>157189.0051277996</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26430,34 +26430,34 @@
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.0322517935</v>
       </c>
       <c r="L4" t="n">
-        <v>19157.89151488701</v>
+        <v>19157.89151488695</v>
       </c>
       <c r="M4" t="n">
-        <v>19157.891514887</v>
+        <v>19157.89151488695</v>
       </c>
       <c r="N4" t="n">
-        <v>19157.89151488693</v>
+        <v>19157.89151488696</v>
       </c>
       <c r="O4" t="n">
-        <v>19157.89151488701</v>
+        <v>19157.89151488695</v>
       </c>
       <c r="P4" t="n">
-        <v>19157.89151488701</v>
+        <v>19157.89151488696</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.7954654356</v>
+        <v>88290.79546543572</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-844452.881119613</v>
+        <v>-844812.9641353303</v>
       </c>
       <c r="C6" t="n">
         <v>-232170.9918368577</v>
       </c>
       <c r="D6" t="n">
-        <v>-494813.1464581027</v>
+        <v>-494813.146458104</v>
       </c>
       <c r="E6" t="n">
-        <v>-595480.6864491137</v>
+        <v>-595515.4243745481</v>
       </c>
       <c r="F6" t="n">
-        <v>-31574.90210669998</v>
+        <v>-31609.64003213568</v>
       </c>
       <c r="G6" t="n">
-        <v>-31574.90210670003</v>
+        <v>-31609.64003213582</v>
       </c>
       <c r="H6" t="n">
-        <v>-31574.9021067</v>
+        <v>-31609.64003213562</v>
       </c>
       <c r="I6" t="n">
-        <v>-31574.90210670004</v>
+        <v>-31609.64003213568</v>
       </c>
       <c r="J6" t="n">
-        <v>-100574.0565258141</v>
+        <v>-100608.7944512498</v>
       </c>
       <c r="K6" t="n">
-        <v>-31574.90210670004</v>
+        <v>-31609.64003213571</v>
       </c>
       <c r="L6" t="n">
-        <v>-140062.9737443854</v>
+        <v>-140062.9737443858</v>
       </c>
       <c r="M6" t="n">
-        <v>-187560.5073393303</v>
+        <v>-187560.50733933</v>
       </c>
       <c r="N6" t="n">
-        <v>-40217.83038237408</v>
+        <v>-40217.83038237401</v>
       </c>
       <c r="O6" t="n">
-        <v>-40217.83038237408</v>
+        <v>-40217.830382374</v>
       </c>
       <c r="P6" t="n">
-        <v>-40217.8303823741</v>
+        <v>-40217.83038237398</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896777</v>
+        <v>885.813286589679</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977078</v>
+        <v>581.4550298977092</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,25 +26811,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.7582728201994</v>
+        <v>271.7582728202008</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519959</v>
+        <v>482.1622137519947</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.7411498962016</v>
+        <v>317.7411498962031</v>
       </c>
       <c r="E4" t="n">
-        <v>591.2532582019403</v>
+        <v>591.2532582019392</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962016</v>
+        <v>317.7411498962031</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019403</v>
+        <v>591.2532582019392</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962016</v>
+        <v>317.7411498962031</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019403</v>
+        <v>591.2532582019392</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.674461904629254</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>46.42024668956697</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>98.63408762871754</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.8549012289419</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,22 +27506,22 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>122.320553760983</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,13 +27619,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>174.8653227588713</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>211.048155034192</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>57.10872233002567</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,19 +27746,19 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>34.32463122580964</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>27.52798673019132</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27831,10 +27831,10 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>218.1011925376332</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>327.9288449837024</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>303.005112381952</v>
+        <v>208.5893956118468</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411815042</v>
+        <v>73.18818411815019</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>127.8724504177536</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.5073162493723</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0607682327524</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>118.8731443045493</v>
+        <v>142.6694535736096</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27947,10 +27947,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>93.83392671696372</v>
+        <v>93.83392671696369</v>
       </c>
       <c r="I9" t="n">
-        <v>23.7963092690663</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>35.21668069290112</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3936111367397</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.025116863428</v>
       </c>
       <c r="I10" t="n">
-        <v>107.4132560413787</v>
+        <v>107.4132560413786</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>105.4699075169638</v>
+        <v>105.4699075169637</v>
       </c>
       <c r="S10" t="n">
         <v>196.178826391195</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.1204706627545</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>242.6311980354041</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
     </row>
     <row r="18">
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30700,7 +30700,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.561058438551465</v>
+        <v>3.561058438551471</v>
       </c>
       <c r="H8" t="n">
-        <v>36.4696897338152</v>
+        <v>36.46968973381526</v>
       </c>
       <c r="I8" t="n">
-        <v>137.2877054522555</v>
+        <v>137.2877054522557</v>
       </c>
       <c r="J8" t="n">
-        <v>302.2403836490077</v>
+        <v>302.2403836490082</v>
       </c>
       <c r="K8" t="n">
-        <v>452.9799873528913</v>
+        <v>452.979987352892</v>
       </c>
       <c r="L8" t="n">
-        <v>561.9617295417108</v>
+        <v>561.9617295417117</v>
       </c>
       <c r="M8" t="n">
-        <v>625.2907025483005</v>
+        <v>625.2907025483014</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368348</v>
+        <v>635.4085598368358</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884886</v>
+        <v>599.9982849884896</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867493</v>
+        <v>512.0846547867501</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.5542494561248</v>
+        <v>384.5542494561254</v>
       </c>
       <c r="R8" t="n">
-        <v>223.6923371406587</v>
+        <v>223.692337140659</v>
       </c>
       <c r="S8" t="n">
-        <v>81.1476191684916</v>
+        <v>81.14761916849172</v>
       </c>
       <c r="T8" t="n">
-        <v>15.58853331475905</v>
+        <v>15.58853331475907</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2848846750841172</v>
+        <v>0.2848846750841176</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.905334239079684</v>
+        <v>1.905334239079687</v>
       </c>
       <c r="H9" t="n">
-        <v>18.40151751953274</v>
+        <v>18.40151751953277</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234878</v>
+        <v>65.60032358234888</v>
       </c>
       <c r="J9" t="n">
-        <v>180.0123019474363</v>
+        <v>180.0123019474366</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657751</v>
+        <v>307.6696959657756</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6998750247358</v>
+        <v>413.6998750247365</v>
       </c>
       <c r="M9" t="n">
-        <v>482.7682411913743</v>
+        <v>482.768241191375</v>
       </c>
       <c r="N9" t="n">
-        <v>495.5456800139745</v>
+        <v>495.5456800139753</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059457</v>
+        <v>453.3274845059464</v>
       </c>
       <c r="P9" t="n">
-        <v>363.835272373032</v>
+        <v>363.8352723730325</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.214244272698</v>
+        <v>243.2142442726983</v>
       </c>
       <c r="R9" t="n">
-        <v>118.2978574053159</v>
+        <v>118.2978574053161</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799323</v>
+        <v>35.39074781799329</v>
       </c>
       <c r="T9" t="n">
-        <v>7.679834060150127</v>
+        <v>7.679834060150139</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815582</v>
+        <v>0.1253509367815584</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719091</v>
+        <v>1.597368221719093</v>
       </c>
       <c r="H10" t="n">
-        <v>14.20205564401156</v>
+        <v>14.20205564401158</v>
       </c>
       <c r="I10" t="n">
-        <v>48.03721888587958</v>
+        <v>48.03721888587965</v>
       </c>
       <c r="J10" t="n">
-        <v>112.9339332755397</v>
+        <v>112.9339332755399</v>
       </c>
       <c r="K10" t="n">
-        <v>185.5851443051816</v>
+        <v>185.5851443051819</v>
       </c>
       <c r="L10" t="n">
-        <v>237.4850899817638</v>
+        <v>237.4850899817641</v>
       </c>
       <c r="M10" t="n">
-        <v>250.3947295191116</v>
+        <v>250.394729519112</v>
       </c>
       <c r="N10" t="n">
-        <v>244.4409025108861</v>
+        <v>244.4409025108865</v>
       </c>
       <c r="O10" t="n">
-        <v>225.7807373753494</v>
+        <v>225.7807373753497</v>
       </c>
       <c r="P10" t="n">
-        <v>193.1944256522798</v>
+        <v>193.1944256522801</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.7578062750413</v>
+        <v>133.7578062750415</v>
       </c>
       <c r="R10" t="n">
-        <v>71.82348386020564</v>
+        <v>71.82348386020576</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577723</v>
+        <v>27.83777164577728</v>
       </c>
       <c r="T10" t="n">
-        <v>6.825118765527022</v>
+        <v>6.825118765527033</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013232</v>
+        <v>0.08712917573013246</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>726.7533607666139</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>240.4469701760394</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>307.9814458135827</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>338.6542681503479</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663306</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N39" t="n">
-        <v>487.5039436775326</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>581.2949959490413</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K3" t="n">
         <v>75.43840481763047</v>
@@ -34793,7 +34793,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
         <v>28.61687799649638</v>
@@ -34872,10 +34872,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204529</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496654</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>245.5483596572286</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35030,7 +35030,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649638</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223214</v>
+        <v>121.1944791223219</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079108</v>
+        <v>232.8901363079115</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717236</v>
+        <v>326.1953145717245</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210278</v>
+        <v>394.9444693210287</v>
       </c>
       <c r="N8" t="n">
-        <v>405.9954962402439</v>
+        <v>405.9954962402449</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668019</v>
+        <v>369.9000735668028</v>
       </c>
       <c r="P8" t="n">
-        <v>280.8516590314798</v>
+        <v>280.8516590314806</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816753</v>
+        <v>162.2485595816759</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326526556</v>
+        <v>8.106799326526897</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>179.2657106211785</v>
+        <v>53.17467528076989</v>
       </c>
       <c r="K9" t="n">
-        <v>169.8282569914161</v>
+        <v>434.2934940039952</v>
       </c>
       <c r="L9" t="n">
-        <v>275.1454952448616</v>
+        <v>275.1454952448623</v>
       </c>
       <c r="M9" t="n">
-        <v>581.4550298977078</v>
+        <v>340.6342072693567</v>
       </c>
       <c r="N9" t="n">
-        <v>364.2039679306412</v>
+        <v>364.203967930642</v>
       </c>
       <c r="O9" t="n">
-        <v>399.3351912385284</v>
+        <v>310.731240061502</v>
       </c>
       <c r="P9" t="n">
-        <v>229.8608649587017</v>
+        <v>402.7714138392398</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.2324701866764</v>
+        <v>103.2324701866768</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>18.14002325267292</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886693</v>
+        <v>19.57475315886711</v>
       </c>
       <c r="K10" t="n">
-        <v>163.3156524792987</v>
+        <v>163.315652479299</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420799</v>
+        <v>265.0751152420803</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9786064809522</v>
+        <v>289.9786064809526</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5730748901147</v>
+        <v>288.5730748901151</v>
       </c>
       <c r="O10" t="n">
-        <v>250.3658652893891</v>
+        <v>250.3658652893894</v>
       </c>
       <c r="P10" t="n">
-        <v>190.4729849171732</v>
+        <v>190.4729849171736</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334695</v>
+        <v>47.59576302334715</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>584.6193268445957</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>101.8925903961653</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,19 +35969,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>132.4173135558164</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,22 +37151,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,22 +37388,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>169.4270660337085</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396443</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N39" t="n">
-        <v>356.1622315941992</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>439.1903400640646</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>442.7406161691672</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
